--- a/03 Linea Base/HPNPSD/Cronograma del Proyecto.xlsx
+++ b/03 Linea Base/HPNPSD/Cronograma del Proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Downloads\HPNPSD\03 Linea Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Downloads\Clon\HPNPSD\03 Linea Base\HPNPSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60220056-BE69-4026-B98B-5C29A6824510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941FEA1-E9A0-49ED-A5D9-66DBCE7946EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>-</t>
   </si>
@@ -265,48 +265,9 @@
     <t>Generar documentación para el usuario</t>
   </si>
   <si>
-    <t>Manual de usuario</t>
-  </si>
-  <si>
-    <t>SS-MU.DOCX</t>
-  </si>
-  <si>
     <t>Azucena</t>
   </si>
   <si>
-    <t>Realizar Pruebas finales del Software</t>
-  </si>
-  <si>
-    <t>Documento de Pruebas del Software</t>
-  </si>
-  <si>
-    <t>SS-DPS.DOCX</t>
-  </si>
-  <si>
-    <t>Estrada y Ocaña</t>
-  </si>
-  <si>
-    <t> Reporte del Tercer Sprint</t>
-  </si>
-  <si>
-    <t>SS-RTS.DOCX</t>
-  </si>
-  <si>
-    <t>Aguero, Abad y Delgado</t>
-  </si>
-  <si>
-    <t>Elaborar del acta de cierre del proyecto</t>
-  </si>
-  <si>
-    <t>Acta de cierre del proyecto</t>
-  </si>
-  <si>
-    <t>SS-ACP.DOCX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguero </t>
-  </si>
-  <si>
     <t>GRUPO 5</t>
   </si>
   <si>
@@ -347,6 +308,30 @@
   </si>
   <si>
     <t xml:space="preserve">Delgado Cardenas, Joaquin Aramis </t>
+  </si>
+  <si>
+    <t>Desarrollo Back end requisito 4</t>
+  </si>
+  <si>
+    <t>Desarrollo Front end requisito 5</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>HPNPSD-DBE4.ipynb</t>
+  </si>
+  <si>
+    <t>HPNPSD-DFE3.ipynb</t>
+  </si>
+  <si>
+    <t>HPNPSD-DP.docx</t>
+  </si>
+  <si>
+    <t>HPNPSD-DD.docx</t>
   </si>
 </sst>
 </file>
@@ -466,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -710,21 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -814,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,24 +885,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,31 +902,34 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,13 +958,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,37 +1180,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.77734375" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" customWidth="1"/>
     <col min="3" max="3" width="67.77734375" customWidth="1"/>
     <col min="4" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1347,37 +1299,37 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="59"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1497,7 +1449,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1521,7 +1473,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="61"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1627,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="28"/>
@@ -1689,7 +1641,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="28" t="s">
         <v>0</v>
       </c>
@@ -1916,10 +1868,10 @@
         <v>68</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>69</v>
@@ -1939,10 +1891,10 @@
         <v>70</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>33</v>
@@ -1962,10 +1914,10 @@
         <v>71</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>33</v>
@@ -1985,13 +1937,13 @@
         <v>72</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="F45" s="19">
         <v>44818</v>
@@ -2004,132 +1956,40 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="19">
-        <v>44818</v>
-      </c>
-      <c r="G46" s="19">
-        <v>44825</v>
-      </c>
-      <c r="H46" s="20">
-        <v>1</v>
-      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="19">
-        <v>44825</v>
-      </c>
-      <c r="G47" s="19">
-        <v>44832</v>
-      </c>
-      <c r="H47" s="20">
-        <v>0</v>
-      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="19">
-        <v>44825</v>
-      </c>
-      <c r="G48" s="19">
-        <v>44832</v>
-      </c>
-      <c r="H48" s="20">
-        <v>0</v>
-      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="38">
-        <v>44825</v>
-      </c>
-      <c r="G49" s="38">
-        <v>44832</v>
-      </c>
-      <c r="H49" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="70"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="70"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="70"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-    </row>
-    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="70"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2165,78 +2025,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="69"/>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>99</v>
+      <c r="C11" s="49" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
